--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_20_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11808.23826425115</v>
+        <v>2349839.414585979</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11808.23826425115</v>
+        <v>2349839.414585979</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28422.55647011539</v>
+        <v>1705353.388206924</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28422.55647011539</v>
+        <v>1705353.388206924</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037108985.117151</v>
+        <v>43146318.95436735</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10735.35055303176</v>
+        <v>1167328.59439082</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19620.44469810549</v>
+        <v>2017408.096615321</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28505.53884317919</v>
+        <v>2867487.598839823</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38333.22069627362</v>
+        <v>3666493.158213952</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48160.90254936803</v>
+        <v>4465498.71758808</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57147.93997983904</v>
+        <v>5315318.243425078</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66134.97741031006</v>
+        <v>6165137.769262073</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75122.01484078109</v>
+        <v>7014957.295099068</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84726.37548175432</v>
+        <v>7795051.824170161</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94425.76642575786</v>
+        <v>8594057.383544285</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104125.1573697614</v>
+        <v>9393062.942918414</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113824.5483137649</v>
+        <v>10192068.50229255</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>123523.9392577684</v>
+        <v>10991074.06166668</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133223.330201772</v>
+        <v>11790079.62104082</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>142922.7211457755</v>
+        <v>12589085.18041495</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>85</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
